--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>上下左右输入</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>不能朝当前方向的反方向前进</t>
+  </si>
+  <si>
+    <t>游戏速度随蛇长度增加</t>
+  </si>
+  <si>
+    <t>Gameover tip</t>
+  </si>
+  <si>
+    <t>设置Tip回调为重新开始</t>
+  </si>
+  <si>
+    <t>Restart重置游戏速度</t>
   </si>
 </sst>
 </file>
@@ -127,7 +139,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,57 +149,119 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,67 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -272,7 +285,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,21 +301,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,19 +315,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,49 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,103 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,17 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,8 +527,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +563,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,35 +596,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,137 +626,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,9 +764,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,137 +1126,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1267,13 +1270,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.1111111111111" customWidth="1"/>
   </cols>
@@ -1284,28 +1287,48 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
